--- a/Timesheet Automation/Timesheet Automation - Harry Setiawan - October 2022.xlsx
+++ b/Timesheet Automation/Timesheet Automation - Harry Setiawan - October 2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSI\Timesheet Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9FBCD0-B9A2-4CD4-9502-F7F3A9029851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E93648-E058-4331-9455-76182ADEB39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,27 +471,26 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -604,8 +603,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1270651" y="8059466"/>
-          <a:ext cx="648478" cy="790133"/>
+          <a:off x="1268160" y="8110515"/>
+          <a:ext cx="649724" cy="790133"/>
           <a:chOff x="4986431" y="3318607"/>
           <a:chExt cx="719138" cy="922787"/>
         </a:xfrm>
@@ -1239,8 +1238,8 @@
   </sheetPr>
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,46 +1282,46 @@
     </row>
     <row r="6" spans="1:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
       <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="26"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1342,11 +1341,10 @@
         <v>19</v>
       </c>
       <c r="M8" s="24"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
     </row>
     <row r="9" spans="1:18" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
@@ -1361,16 +1359,16 @@
       <c r="D9" s="12">
         <v>0.75</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
@@ -1391,16 +1389,16 @@
       <c r="D10" s="12">
         <v>0.75</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
@@ -1638,16 +1636,16 @@
       <c r="D16" s="12">
         <v>0.75</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -1668,16 +1666,16 @@
       <c r="D17" s="12">
         <v>0.75</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -1915,16 +1913,16 @@
       <c r="D23" s="12">
         <v>0.75</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
@@ -1945,16 +1943,16 @@
       <c r="D24" s="12">
         <v>0.75</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
@@ -2182,16 +2180,16 @@
       <c r="D30" s="12">
         <v>0.75</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
@@ -2210,16 +2208,16 @@
       <c r="D31" s="12">
         <v>0.75</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
@@ -2451,16 +2449,16 @@
       <c r="D37" s="12">
         <v>0.75</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -2479,16 +2477,16 @@
       <c r="D38" s="12">
         <v>0.75</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
     </row>
     <row r="39" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
@@ -2515,10 +2513,10 @@
       <c r="H39" s="13">
         <v>3461</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="28">
         <v>3163</v>
       </c>
-      <c r="J39" s="33">
+      <c r="J39" s="28">
         <v>298</v>
       </c>
       <c r="K39" s="15">
@@ -2530,7 +2528,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
+      <c r="A40" s="26"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
@@ -2579,11 +2577,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="E24:L24"/>
-    <mergeCell ref="E30:L30"/>
     <mergeCell ref="E37:L37"/>
     <mergeCell ref="E38:L38"/>
     <mergeCell ref="E31:L31"/>
@@ -2595,6 +2588,11 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="E9:L9"/>
     <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="E30:L30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.59055118110236215" right="0.59055118110236215" top="0.19685039370078741" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
